--- a/app/tools/static/template_files/enrollments_template.xlsx
+++ b/app/tools/static/template_files/enrollments_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treharne\Documents\canvascracker\app\tools\static\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A04B9-5E8F-4F57-8DA8-A190BE61A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A22C0-E937-455E-BD71-EDB5838BAAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E9E9A40A-E448-4116-A942-54BEF33B82A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>LIFE101-202324</t>
   </si>
@@ -53,7 +53,16 @@
     <t>enrollment_type</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user@university.ac.uk</t>
+  </si>
+  <si>
+    <t>LIFE102-202324</t>
+  </si>
+  <si>
+    <t>LIFE105-202324</t>
   </si>
 </sst>
 </file>
@@ -436,13 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69294F0C-DE5B-465A-BF87-9AE149549A23}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -459,8 +472,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>101</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -468,19 +481,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>101</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="bloggs@liverpool.ac.uk" xr:uid="{FA6B1BF0-4B9F-47FC-A5F6-CC845FC906A7}"/>
-    <hyperlink ref="B3" r:id="rId2" display="smith@liverpool.ac.uk" xr:uid="{CECB9384-CE42-47AC-A1B2-6FC19C39228C}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FA6B1BF0-4B9F-47FC-A5F6-CC845FC906A7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BCAF79E0-D086-4AAE-9E18-B27357FD1D58}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{18B865FD-4498-46D4-AB88-7775E0AFA303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
